--- a/biology/Mycologie/Candida_utilis/Candida_utilis.xlsx
+++ b/biology/Mycologie/Candida_utilis/Candida_utilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Candida utilis est une espèce de levures de la famille des Saccharomycetaceae. Elle se développe principalement sur des substrats riches en cellulose (bois, pâte à papier…).
 </t>
@@ -511,7 +523,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Candida utilis est utilisée, après inactivation par chauffage, dans l'industrie alimentaire de trois façons différentes :
 en tant qu'arôme car cette levure possède une saveur légère de viande ;
@@ -546,9 +560,11 @@
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les personnes ayant des relations allergiques aux moisissures peuvent réagir à Candida utilis (sinusite, affections respiratoires…). De plus cette levure peut provoquer des troubles chez les personnes avec un système immunitaire déficient (notamment troubles urinaires)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les personnes ayant des relations allergiques aux moisissures peuvent réagir à Candida utilis (sinusite, affections respiratoires…). De plus cette levure peut provoquer des troubles chez les personnes avec un système immunitaire déficient (notamment troubles urinaires).
 </t>
         </is>
       </c>
@@ -577,12 +593,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Candida utilis (Henneberg) Lodder &amp; Kreger, 1952[2].
-L'espèce a été initialement classée dans le genre Saccharomyces sous le basionyme Saccharomyces jadinii Sartory, R. Sartory, Weill &amp; J. Mey., 1932[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Candida utilis (Henneberg) Lodder &amp; Kreger, 1952.
+L'espèce a été initialement classée dans le genre Saccharomyces sous le basionyme Saccharomyces jadinii Sartory, R. Sartory, Weill &amp; J. Mey., 1932.
 Dans une ancienne classification, Candida utilis était connue sous le nom de Torula utilis, jusqu'à ce que les chercheurs la rapprochent du genre Candida (le genre Torula ayant maintenant été supprimé). Cependant, même aujourd'hui, elle est couramment appelée Torula.
-Candida utilis a pour synonymes[2] :
+Candida utilis a pour synonymes :
 Candida amidovorans Balloni, 1987
 Candida amidovorans Balloni, G. Florenz., G. Mazza &amp; Polsin., 1987
 Candida guilliermondii var. nitratophila Diddens &amp; Lodder, 1942
@@ -623,7 +641,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>J. Lodder et N.J.W.Kreger-van Rij, The Yeasts: a taxonomic study, 1952, p. 1-713</t>
         </is>
